--- a/data/long_bre/P19_2-Estudios-long_bre.xlsx
+++ b/data/long_bre/P19_2-Estudios-long_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H27"/>
+  <dimension ref="A1:J44"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -523,6 +523,8 @@
     <col width="14" customWidth="1" min="6" max="6"/>
     <col width="14" customWidth="1" min="7" max="7"/>
     <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -539,13 +541,15 @@
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
-      <c r="F1" s="3" t="inlineStr">
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
         <is>
           <t>Brecha de género relativa</t>
         </is>
       </c>
-      <c r="G1" s="3" t="n"/>
       <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -567,17 +571,27 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>M5-M4</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
           <t>M2-M1</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
         <is>
           <t>M3-M2</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M4-M3</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M5-M4</t>
         </is>
       </c>
     </row>
@@ -590,6 +604,8 @@
       <c r="F3" s="2" t="n"/>
       <c r="G3" s="2" t="n"/>
       <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -599,37 +615,47 @@
       </c>
       <c r="B4" s="3" t="inlineStr">
         <is>
-          <t>Más</t>
+          <t>Más diferencia negativa</t>
         </is>
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>-0,73</t>
+          <t>-1,97</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>-4,33</t>
+          <t>-11,04</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>-2,82</t>
+          <t>-0,79</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>-3,34%</t>
+          <t>-9,69</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>-16,35%</t>
+          <t>-9,24%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>-11,81%</t>
+          <t>-35,67%</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>-3,43%</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>-35,23%</t>
         </is>
       </c>
     </row>
@@ -642,32 +668,42 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-10,19; 9,1</t>
+          <t>-13,3; 8,75</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-20,32; 6,37</t>
+          <t>-29,59; 2,79</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-11,53; 4,83</t>
+          <t>-9,08; 7,57</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-36,95; 52,06</t>
+          <t>-35,63; 4,58</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-52,29; 33,18</t>
+          <t>-48,73; 59,13</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-38,82; 26,42</t>
+          <t>-67,57; 12,41</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>-32,87; 42,6</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>-73,2; 30,5</t>
         </is>
       </c>
     </row>
@@ -675,37 +711,47 @@
       <c r="A6" s="1" t="n"/>
       <c r="B6" s="3" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Igual diferencia Cero</t>
         </is>
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>-11,77</t>
+          <t>-4,07</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>-1,53</t>
+          <t>5,01</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>3,61</t>
+          <t>5,62</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-19,09%</t>
+          <t>9,59</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>-2,8%</t>
+          <t>-7,15%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>7,38%</t>
+          <t>10,09%</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>11,44%</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>21,32%</t>
         </is>
       </c>
     </row>
@@ -718,32 +764,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-24,67; 0,8</t>
+          <t>-20,35; 9,82</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-15,75; 12,69</t>
+          <t>-8,79; 21,33</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-7,32; 16,47</t>
+          <t>-3,58; 17,0</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-36,6; 1,01</t>
+          <t>-5,75; 28,07</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-25,35; 27,63</t>
+          <t>-30,77; 20,86</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-13,5; 38,29</t>
+          <t>-15,72; 56,65</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>-6,53; 40,57</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>-10,6; 85,38</t>
         </is>
       </c>
     </row>
@@ -751,37 +807,47 @@
       <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Menos</t>
+          <t>Menos Diferencia Positiva</t>
         </is>
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>12,51</t>
+          <t>6,04</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>5,86</t>
+          <t>6,03</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-0,78</t>
+          <t>-4,84</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>76,33%</t>
+          <t>0,11</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>30,78%</t>
+          <t>27,65%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-2,88%</t>
+          <t>31,09%</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>-17,32%</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>0,39%</t>
         </is>
       </c>
     </row>
@@ -794,74 +860,90 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>3,34; 21,55</t>
+          <t>-5,34; 19,22</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-4,05; 15,48</t>
+          <t>-5,18; 17,0</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-15,8; 9,59</t>
+          <t>-19,28; 3,39</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>14,05; 174,6</t>
+          <t>-13,07; 14,0</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-16,9; 106,59</t>
+          <t>-21,83; 122,29</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-42,6; 46,1</t>
+          <t>-20,99; 123,43</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>-50,36; 14,37</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>-36,51; 73,7</t>
         </is>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="1" t="inlineStr">
-        <is>
-          <t>Secundaria o FP grado sup</t>
-        </is>
-      </c>
+      <c r="A10" s="1" t="n"/>
       <c r="B10" s="3" t="inlineStr">
         <is>
-          <t>Más</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>-0,44</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-2,63</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>3,94</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-1,46%</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>-12,58%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>20,54%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -874,70 +956,94 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-7,79; 5,71</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-8,59; 3,38</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-2,31; 8,99</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-22,24; 21,53</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-36,19; 19,25</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-10,62; 53,46</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="n"/>
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>Secundaria o FP grado sup</t>
+        </is>
+      </c>
       <c r="B12" s="3" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Más diferencia negativa</t>
         </is>
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>-2,8</t>
+          <t>-1,92</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>3,68</t>
+          <t>0,87</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>-7,94</t>
+          <t>3,71</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>-5,46%</t>
+          <t>9,68</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>7,36%</t>
+          <t>-6,03%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>-12,98%</t>
+          <t>4,63%</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>19,24%</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>69,74%</t>
         </is>
       </c>
     </row>
@@ -950,32 +1056,42 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-10,48; 4,01</t>
+          <t>-12,19; 7,04</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-4,68; 10,72</t>
+          <t>-6,08; 7,3</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-15,1; -1,51</t>
+          <t>-1,69; 9,47</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-18,73; 8,56</t>
+          <t>3,4; 16,02</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-8,44; 23,4</t>
+          <t>-31,24; 27,63</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-23,41; -2,75</t>
+          <t>-26,76; 47,22</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>-8,01; 59,37</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>18,76; 142,3</t>
         </is>
       </c>
     </row>
@@ -983,37 +1099,47 @@
       <c r="A14" s="1" t="n"/>
       <c r="B14" s="3" t="inlineStr">
         <is>
-          <t>Menos</t>
+          <t>Igual diferencia Cero</t>
         </is>
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>3,23</t>
+          <t>-5,03</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>-1,05</t>
+          <t>1,12</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>4,0</t>
+          <t>-7,67</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>17,12%</t>
+          <t>-5,55</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>-3,6%</t>
+          <t>-10,08%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>20,39%</t>
+          <t>2,22%</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>-12,7%</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>-9,37%</t>
         </is>
       </c>
     </row>
@@ -1026,74 +1152,90 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-2,32; 8,73</t>
+          <t>-14,33; 5,25</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-8,95; 5,82</t>
+          <t>-8,33; 9,32</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-1,32; 9,21</t>
+          <t>-14,26; -1,28</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-10,83; 56,74</t>
+          <t>-14,18; 2,66</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-26,3; 23,07</t>
+          <t>-26,22; 11,57</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-7,15; 52,64</t>
+          <t>-14,96; 20,12</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>-22,1; -2,02</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>-21,86; 5,13</t>
         </is>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="1" t="inlineStr">
-        <is>
-          <t>Estudios universitarios o más</t>
-        </is>
-      </c>
+      <c r="A16" s="1" t="n"/>
       <c r="B16" s="3" t="inlineStr">
         <is>
-          <t>Más</t>
+          <t>Menos Diferencia Positiva</t>
         </is>
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>3,45</t>
+          <t>6,95</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>-1,2</t>
+          <t>-1,99</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>3,67</t>
+          <t>3,96</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>13,94%</t>
+          <t>-4,13</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>-6,5%</t>
+          <t>38,1%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>18,95%</t>
+          <t>-6,49%</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>19,49%</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>-15,39%</t>
         </is>
       </c>
     </row>
@@ -1106,32 +1248,42 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-3,52; 10,77</t>
+          <t>-0,07; 15,12</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-8,16; 4,69</t>
+          <t>-10,58; 6,39</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-2,18; 9,18</t>
+          <t>-1,08; 9,63</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-12,28; 52,1</t>
+          <t>-11,69; 3,25</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-35,68; 31,15</t>
+          <t>-2,32; 100,38</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-9,49; 56,57</t>
+          <t>-29,1; 25,22</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>-4,97; 56,19</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>-37,07; 14,41</t>
         </is>
       </c>
     </row>
@@ -1139,37 +1291,47 @@
       <c r="A18" s="1" t="n"/>
       <c r="B18" s="3" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>2,54</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>3,08</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>-6,8</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>4,82%</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>6,21%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>-11,3%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1182,70 +1344,94 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-5,8; 10,81</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-5,84; 11,45</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-13,72; 0,51</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-9,88; 22,73</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-10,73; 26,57</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-21,63; 0,87</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="1" t="n"/>
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t>Estudios universitarios o más</t>
+        </is>
+      </c>
       <c r="B20" s="3" t="inlineStr">
         <is>
-          <t>Menos</t>
+          <t>Más diferencia negativa</t>
         </is>
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>-5,99</t>
+          <t>4,48</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>-1,88</t>
+          <t>0,55</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>3,13</t>
+          <t>3,5</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>-26,69%</t>
+          <t>-4,5</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>-5,87%</t>
+          <t>18,53%</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>15,26%</t>
+          <t>3,09%</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>17,93%</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>-21,24%</t>
         </is>
       </c>
     </row>
@@ -1258,74 +1444,90 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-12,63; 0,76</t>
+          <t>-4,53; 12,77</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-9,51; 6,27</t>
+          <t>-6,18; 7,33</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-3,88; 8,97</t>
+          <t>-1,88; 9,56</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-47,7; 5,26</t>
+          <t>-14,2; 2,69</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-25,66; 23,06</t>
+          <t>-15,42; 64,14</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-14,89; 53,33</t>
+          <t>-28,32; 54,03</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>-8,71; 57,3</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>-48,44; 17,99</t>
         </is>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
+      <c r="A22" s="1" t="n"/>
       <c r="B22" s="3" t="inlineStr">
         <is>
-          <t>Más</t>
+          <t>Igual diferencia Cero</t>
         </is>
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>0,44</t>
+          <t>2,81</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>-2,35</t>
+          <t>0,22</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>2,37</t>
+          <t>-6,57</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>1,65%</t>
+          <t>1,3</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>-11,1%</t>
+          <t>5,35%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>11,71%</t>
+          <t>0,43%</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>-10,97%</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>2,3%</t>
         </is>
       </c>
     </row>
@@ -1338,32 +1540,42 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-3,8; 5,13</t>
+          <t>-6,38; 12,62</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-7,06; 1,71</t>
+          <t>-9,53; 9,36</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-1,5; 6,16</t>
+          <t>-14,47; 0,53</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-13,1; 21,02</t>
+          <t>-7,13; 11,04</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-29,11; 9,04</t>
+          <t>-11,09; 26,82</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-7,25; 32,77</t>
+          <t>-17,25; 21,02</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>-22,56; 0,76</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>-11,44; 22,48</t>
         </is>
       </c>
     </row>
@@ -1371,37 +1583,47 @@
       <c r="A24" s="1" t="n"/>
       <c r="B24" s="3" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Menos Diferencia Positiva</t>
         </is>
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>-2,94</t>
+          <t>-7,29</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>2,47</t>
+          <t>-0,77</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>-5,18</t>
+          <t>3,07</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>-5,48%</t>
+          <t>3,2</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>4,88%</t>
+          <t>-31,33%</t>
         </is>
       </c>
       <c r="H24" s="2" t="inlineStr">
         <is>
-          <t>-8,89%</t>
+          <t>-2,45%</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>14,95%</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>14,4%</t>
         </is>
       </c>
     </row>
@@ -1414,32 +1636,42 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>-8,33; 1,72</t>
+          <t>-15,25; -0,05</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>-2,75; 7,89</t>
+          <t>-9,67; 7,73</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>-10,04; -0,91</t>
+          <t>-4,0; 9,12</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>-14,42; 3,34</t>
+          <t>-4,23; 9,97</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>-4,98; 17,24</t>
+          <t>-53,85; 0,66</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>-16,38; -1,75</t>
+          <t>-26,62; 29,65</t>
+        </is>
+      </c>
+      <c r="I25" s="2" t="inlineStr">
+        <is>
+          <t>-16,23; 52,62</t>
+        </is>
+      </c>
+      <c r="J25" s="2" t="inlineStr">
+        <is>
+          <t>-15,89; 53,42</t>
         </is>
       </c>
     </row>
@@ -1447,37 +1679,47 @@
       <c r="A26" s="1" t="n"/>
       <c r="B26" s="3" t="inlineStr">
         <is>
-          <t>Menos</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>2,5</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>-0,13</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>2,81</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>12,86%</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>-0,45%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>13,08%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I26" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J26" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1490,44 +1732,838 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>-1,24; 6,32</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>-4,98; 4,42</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>-1,55; 7,32</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>-5,79; 36,39</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>-16,04; 17,83</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>-7,28; 37,97</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I27" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J27" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="inlineStr">
+        <is>
+          <t>No Pertenece a Medición</t>
+        </is>
+      </c>
+      <c r="B28" s="3" t="inlineStr">
+        <is>
+          <t>Más diferencia negativa</t>
+        </is>
+      </c>
+      <c r="C28" s="2" t="inlineStr">
+        <is>
+          <t>-1,04</t>
+        </is>
+      </c>
+      <c r="D28" s="2" t="inlineStr">
+        <is>
+          <t>-7,72</t>
+        </is>
+      </c>
+      <c r="E28" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="F28" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="G28" s="2" t="inlineStr">
+        <is>
+          <t>-3,85%</t>
+        </is>
+      </c>
+      <c r="H28" s="2" t="inlineStr">
+        <is>
+          <t>-30,77%</t>
+        </is>
+      </c>
+      <c r="I28" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J28" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n"/>
+      <c r="B29" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C29" s="2" t="inlineStr">
+        <is>
+          <t>-8,47; 5,37</t>
+        </is>
+      </c>
+      <c r="D29" s="2" t="inlineStr">
+        <is>
+          <t>-17,6; 1,48</t>
+        </is>
+      </c>
+      <c r="E29" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F29" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G29" s="2" t="inlineStr">
+        <is>
+          <t>-27,88; 23,08</t>
+        </is>
+      </c>
+      <c r="H29" s="2" t="inlineStr">
+        <is>
+          <t>-56,43; 8,53</t>
+        </is>
+      </c>
+      <c r="I29" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J29" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n"/>
+      <c r="B30" s="3" t="inlineStr">
+        <is>
+          <t>Igual diferencia Cero</t>
+        </is>
+      </c>
+      <c r="C30" s="2" t="inlineStr">
+        <is>
+          <t>-0,32</t>
+        </is>
+      </c>
+      <c r="D30" s="2" t="inlineStr">
+        <is>
+          <t>8,98</t>
+        </is>
+      </c>
+      <c r="E30" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="F30" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="G30" s="2" t="inlineStr">
+        <is>
+          <t>-0,59%</t>
+        </is>
+      </c>
+      <c r="H30" s="2" t="inlineStr">
+        <is>
+          <t>18,71%</t>
+        </is>
+      </c>
+      <c r="I30" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J30" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="n"/>
+      <c r="B31" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C31" s="2" t="inlineStr">
+        <is>
+          <t>-8,13; 7,63</t>
+        </is>
+      </c>
+      <c r="D31" s="2" t="inlineStr">
+        <is>
+          <t>-3,62; 21,16</t>
+        </is>
+      </c>
+      <c r="E31" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F31" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G31" s="2" t="inlineStr">
+        <is>
+          <t>-13,83; 14,99</t>
+        </is>
+      </c>
+      <c r="H31" s="2" t="inlineStr">
+        <is>
+          <t>-6,55; 51,0</t>
+        </is>
+      </c>
+      <c r="I31" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J31" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="n"/>
+      <c r="B32" s="3" t="inlineStr">
+        <is>
+          <t>Menos Diferencia Positiva</t>
+        </is>
+      </c>
+      <c r="C32" s="2" t="inlineStr">
+        <is>
+          <t>1,36</t>
+        </is>
+      </c>
+      <c r="D32" s="2" t="inlineStr">
+        <is>
+          <t>-1,27</t>
+        </is>
+      </c>
+      <c r="E32" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="F32" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="G32" s="2" t="inlineStr">
+        <is>
+          <t>7,15%</t>
+        </is>
+      </c>
+      <c r="H32" s="2" t="inlineStr">
+        <is>
+          <t>-4,71%</t>
+        </is>
+      </c>
+      <c r="I32" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J32" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="n"/>
+      <c r="B33" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C33" s="2" t="inlineStr">
+        <is>
+          <t>-4,58; 7,79</t>
+        </is>
+      </c>
+      <c r="D33" s="2" t="inlineStr">
+        <is>
+          <t>-12,45; 8,5</t>
+        </is>
+      </c>
+      <c r="E33" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F33" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G33" s="2" t="inlineStr">
+        <is>
+          <t>-21,3; 49,09</t>
+        </is>
+      </c>
+      <c r="H33" s="2" t="inlineStr">
+        <is>
+          <t>-39,05; 42,25</t>
+        </is>
+      </c>
+      <c r="I33" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J33" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="n"/>
+      <c r="B34" s="3" t="inlineStr">
+        <is>
+          <t>No Pertenece a Medición</t>
+        </is>
+      </c>
+      <c r="C34" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="D34" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="E34" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="F34" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="G34" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="H34" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I34" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J34" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="n"/>
+      <c r="B35" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="D35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B36" s="3" t="inlineStr">
+        <is>
+          <t>Más diferencia negativa</t>
+        </is>
+      </c>
+      <c r="C36" s="2" t="inlineStr">
+        <is>
+          <t>-0,28</t>
+        </is>
+      </c>
+      <c r="D36" s="2" t="inlineStr">
+        <is>
+          <t>-2,49</t>
+        </is>
+      </c>
+      <c r="E36" s="2" t="inlineStr">
+        <is>
+          <t>2,69</t>
+        </is>
+      </c>
+      <c r="F36" s="2" t="inlineStr">
+        <is>
+          <t>0,85</t>
+        </is>
+      </c>
+      <c r="G36" s="2" t="inlineStr">
+        <is>
+          <t>-1,04%</t>
+        </is>
+      </c>
+      <c r="H36" s="2" t="inlineStr">
+        <is>
+          <t>-11,64%</t>
+        </is>
+      </c>
+      <c r="I36" s="2" t="inlineStr">
+        <is>
+          <t>13,39%</t>
+        </is>
+      </c>
+      <c r="J36" s="2" t="inlineStr">
+        <is>
+          <t>4,46%</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="n"/>
+      <c r="B37" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C37" s="2" t="inlineStr">
+        <is>
+          <t>-4,94; 3,77</t>
+        </is>
+      </c>
+      <c r="D37" s="2" t="inlineStr">
+        <is>
+          <t>-7,0; 2,15</t>
+        </is>
+      </c>
+      <c r="E37" s="2" t="inlineStr">
+        <is>
+          <t>-0,95; 6,19</t>
+        </is>
+      </c>
+      <c r="F37" s="2" t="inlineStr">
+        <is>
+          <t>-6,65; 5,45</t>
+        </is>
+      </c>
+      <c r="G37" s="2" t="inlineStr">
+        <is>
+          <t>-16,27; 15,19</t>
+        </is>
+      </c>
+      <c r="H37" s="2" t="inlineStr">
+        <is>
+          <t>-29,06; 11,44</t>
+        </is>
+      </c>
+      <c r="I37" s="2" t="inlineStr">
+        <is>
+          <t>-5,04; 33,67</t>
+        </is>
+      </c>
+      <c r="J37" s="2" t="inlineStr">
+        <is>
+          <t>-28,17; 33,35</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="n"/>
+      <c r="B38" s="3" t="inlineStr">
+        <is>
+          <t>Igual diferencia Cero</t>
+        </is>
+      </c>
+      <c r="C38" s="2" t="inlineStr">
+        <is>
+          <t>-1,51</t>
+        </is>
+      </c>
+      <c r="D38" s="2" t="inlineStr">
+        <is>
+          <t>2,9</t>
+        </is>
+      </c>
+      <c r="E38" s="2" t="inlineStr">
+        <is>
+          <t>-4,52</t>
+        </is>
+      </c>
+      <c r="F38" s="2" t="inlineStr">
+        <is>
+          <t>-0,23</t>
+        </is>
+      </c>
+      <c r="G38" s="2" t="inlineStr">
+        <is>
+          <t>-2,86%</t>
+        </is>
+      </c>
+      <c r="H38" s="2" t="inlineStr">
+        <is>
+          <t>5,79%</t>
+        </is>
+      </c>
+      <c r="I38" s="2" t="inlineStr">
+        <is>
+          <t>-7,8%</t>
+        </is>
+      </c>
+      <c r="J38" s="2" t="inlineStr">
+        <is>
+          <t>-0,42%</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="n"/>
+      <c r="B39" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C39" s="2" t="inlineStr">
+        <is>
+          <t>-6,4; 3,51</t>
+        </is>
+      </c>
+      <c r="D39" s="2" t="inlineStr">
+        <is>
+          <t>-3,03; 7,95</t>
+        </is>
+      </c>
+      <c r="E39" s="2" t="inlineStr">
+        <is>
+          <t>-8,98; 0,17</t>
+        </is>
+      </c>
+      <c r="F39" s="2" t="inlineStr">
+        <is>
+          <t>-6,07; 6,45</t>
+        </is>
+      </c>
+      <c r="G39" s="2" t="inlineStr">
+        <is>
+          <t>-11,47; 7,06</t>
+        </is>
+      </c>
+      <c r="H39" s="2" t="inlineStr">
+        <is>
+          <t>-5,67; 16,89</t>
+        </is>
+      </c>
+      <c r="I39" s="2" t="inlineStr">
+        <is>
+          <t>-14,91; 0,03</t>
+        </is>
+      </c>
+      <c r="J39" s="2" t="inlineStr">
+        <is>
+          <t>-10,37; 12,69</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="n"/>
+      <c r="B40" s="3" t="inlineStr">
+        <is>
+          <t>Menos Diferencia Positiva</t>
+        </is>
+      </c>
+      <c r="C40" s="2" t="inlineStr">
+        <is>
+          <t>1,79</t>
+        </is>
+      </c>
+      <c r="D40" s="2" t="inlineStr">
+        <is>
+          <t>-0,41</t>
+        </is>
+      </c>
+      <c r="E40" s="2" t="inlineStr">
+        <is>
+          <t>1,82</t>
+        </is>
+      </c>
+      <c r="F40" s="2" t="inlineStr">
+        <is>
+          <t>-0,61</t>
+        </is>
+      </c>
+      <c r="G40" s="2" t="inlineStr">
+        <is>
+          <t>9,01%</t>
+        </is>
+      </c>
+      <c r="H40" s="2" t="inlineStr">
+        <is>
+          <t>-1,44%</t>
+        </is>
+      </c>
+      <c r="I40" s="2" t="inlineStr">
+        <is>
+          <t>8,31%</t>
+        </is>
+      </c>
+      <c r="J40" s="2" t="inlineStr">
+        <is>
+          <t>-2,41%</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="n"/>
+      <c r="B41" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C41" s="2" t="inlineStr">
+        <is>
+          <t>-1,7; 5,58</t>
+        </is>
+      </c>
+      <c r="D41" s="2" t="inlineStr">
+        <is>
+          <t>-5,43; 4,16</t>
+        </is>
+      </c>
+      <c r="E41" s="2" t="inlineStr">
+        <is>
+          <t>-2,49; 5,49</t>
+        </is>
+      </c>
+      <c r="F41" s="2" t="inlineStr">
+        <is>
+          <t>-5,43; 5,04</t>
+        </is>
+      </c>
+      <c r="G41" s="2" t="inlineStr">
+        <is>
+          <t>-7,78; 30,59</t>
+        </is>
+      </c>
+      <c r="H41" s="2" t="inlineStr">
+        <is>
+          <t>-16,78; 16,16</t>
+        </is>
+      </c>
+      <c r="I41" s="2" t="inlineStr">
+        <is>
+          <t>-10,5; 28,49</t>
+        </is>
+      </c>
+      <c r="J41" s="2" t="inlineStr">
+        <is>
+          <t>-19,27; 22,07</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="n"/>
+      <c r="B42" s="3" t="inlineStr">
+        <is>
+          <t>No Pertenece a Medición</t>
+        </is>
+      </c>
+      <c r="C42" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="D42" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="E42" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="F42" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="G42" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="H42" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I42" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J42" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="n"/>
+      <c r="B43" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C43" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="D43" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E43" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F43" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G43" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H43" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I43" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J43" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="7">
-    <mergeCell ref="C1:E1"/>
-    <mergeCell ref="A22:A27"/>
-    <mergeCell ref="A4:A9"/>
-    <mergeCell ref="F1:H1"/>
-    <mergeCell ref="A16:A21"/>
-    <mergeCell ref="A10:A15"/>
+  <mergeCells count="8">
+    <mergeCell ref="A4:A11"/>
+    <mergeCell ref="A12:A19"/>
+    <mergeCell ref="A20:A27"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
     <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A28:A35"/>
+    <mergeCell ref="A36:A43"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
